--- a/Project submission/Wrangle and Analyze Data/incorrect_numerator.xlsx
+++ b/Project submission/Wrangle and Analyze Data/incorrect_numerator.xlsx
@@ -554,7 +554,7 @@
         <v>42918</v>
       </c>
       <c r="M2" s="2">
-        <v>44572.9158912037</v>
+        <v>44574.9158912037</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -583,7 +583,7 @@
         <v>42847</v>
       </c>
       <c r="M3" s="2">
-        <v>44572.80245370371</v>
+        <v>44574.80245370371</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -612,7 +612,7 @@
         <v>42847</v>
       </c>
       <c r="M4" s="2">
-        <v>44572.79550925926</v>
+        <v>44574.79550925926</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -641,7 +641,7 @@
         <v>42798</v>
       </c>
       <c r="M5" s="2">
-        <v>44572.92560185185</v>
+        <v>44574.92560185185</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -670,7 +670,7 @@
         <v>42656</v>
       </c>
       <c r="M6" s="2">
-        <v>44572.97495370371</v>
+        <v>44574.97495370371</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -702,7 +702,7 @@
         <v>42633</v>
       </c>
       <c r="M7" s="2">
-        <v>44572.01706018519</v>
+        <v>44574.01706018519</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -731,7 +731,7 @@
         <v>42555</v>
       </c>
       <c r="M8" s="2">
-        <v>44572.62552083333</v>
+        <v>44574.62552083333</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -760,7 +760,7 @@
         <v>42363</v>
       </c>
       <c r="M9" s="2">
-        <v>44572.87916666667</v>
+        <v>44574.87916666667</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -789,7 +789,7 @@
         <v>42337</v>
       </c>
       <c r="M10" s="2">
-        <v>44572.24482638889</v>
+        <v>44574.24482638889</v>
       </c>
     </row>
   </sheetData>
